--- a/data/spring-kafka-microservices/ms-stock_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-stock_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="98">
   <si>
     <t>Class Name</t>
   </si>
@@ -202,21 +204,21 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>availableItems</t>
+  </si>
+  <si>
     <t>reservedItems</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>availableItems</t>
-  </si>
-  <si>
     <t>repository</t>
   </si>
   <si>
@@ -229,18 +231,18 @@
     <t>orderService</t>
   </si>
   <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>domain.OrderSource</t>
+  </si>
+  <si>
     <t>template</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>domain.OrderSource</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -290,6 +292,30 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
@@ -2053,6 +2079,387 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>
@@ -2113,7 +2520,7 @@
         <v>61</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -2141,7 +2548,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -2197,7 +2604,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -2219,13 +2626,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -2233,7 +2640,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>61</v>
@@ -2275,13 +2682,13 @@
         <v>50</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2289,13 +2696,13 @@
         <v>50</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -2303,13 +2710,13 @@
         <v>50</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -2317,13 +2724,13 @@
         <v>50</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-stock_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-stock_structure.xlsx
@@ -204,21 +204,21 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>availableItems</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>reservedItems</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>availableItems</t>
-  </si>
-  <si>
-    <t>reservedItems</t>
-  </si>
-  <si>
     <t>repository</t>
   </si>
   <si>
@@ -231,16 +231,16 @@
     <t>orderService</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>SOURCE</t>
   </si>
   <si>
     <t>domain.OrderSource</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -2520,7 +2520,7 @@
         <v>61</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -2534,7 +2534,7 @@
         <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -2548,7 +2548,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -2562,7 +2562,7 @@
         <v>61</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -2604,7 +2604,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -2618,7 +2618,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -2626,13 +2626,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -2640,13 +2640,13 @@
         <v>29</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2696,13 +2696,13 @@
         <v>50</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -2710,13 +2710,13 @@
         <v>50</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">

--- a/data/spring-kafka-microservices/ms-stock_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-stock_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="108">
   <si>
     <t>Class Name</t>
   </si>
@@ -204,45 +204,45 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>reservedItems</t>
+  </si>
+  <si>
     <t>availableItems</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>reservedItems</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>repository</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>orderService</t>
   </si>
   <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>domain.OrderSource</t>
+  </si>
+  <si>
     <t>template</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>domain.OrderSource</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -297,25 +297,55 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>45</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>StockApplicationTests()</t>
+  </si>
+  <si>
+    <t>Product$ProductBuilder()</t>
+  </si>
+  <si>
+    <t>DevBootstrap(com.zatribune.spring.ecommerce.stock.db.repository.ProductRepository)</t>
+  </si>
+  <si>
+    <t>Product(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
+    <t>Product()</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>OrderListener(com.zatribune.spring.ecommerce.stock.service.OrderService)</t>
+  </si>
+  <si>
+    <t>StockApplication()</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>OrderServiceImpl(com.zatribune.spring.ecommerce.stock.db.repository.ProductRepository, org.springframework.kafka.core.KafkaTemplate)</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -2108,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -2116,7 +2146,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -2124,7 +2154,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -2132,7 +2162,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -2140,7 +2170,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2148,7 +2178,7 @@
         <v>48</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -2156,7 +2186,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -2164,7 +2194,7 @@
         <v>53</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2204,13 +2234,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -2218,7 +2248,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>80</v>
@@ -2229,7 +2259,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>80</v>
@@ -2240,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>80</v>
@@ -2251,10 +2281,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -2262,54 +2292,54 @@
         <v>26</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2347,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -2328,10 +2358,10 @@
         <v>29</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -2339,10 +2369,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -2350,10 +2380,10 @@
         <v>29</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -2361,10 +2391,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2402,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -2383,75 +2413,163 @@
         <v>29</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B32" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C33" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -2520,7 +2638,7 @@
         <v>61</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -2534,7 +2652,7 @@
         <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -2548,7 +2666,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -2562,7 +2680,7 @@
         <v>61</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -2576,7 +2694,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -2584,13 +2702,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -2604,7 +2722,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -2618,7 +2736,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -2626,13 +2744,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -2640,13 +2758,13 @@
         <v>29</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -2654,13 +2772,13 @@
         <v>46</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -2682,13 +2800,13 @@
         <v>50</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -2696,13 +2814,13 @@
         <v>50</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2730,7 +2848,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-stock_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-stock_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="110">
   <si>
     <t>Class Name</t>
   </si>
@@ -300,12 +300,12 @@
     <t>28</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
@@ -321,10 +321,16 @@
     <t>Product$ProductBuilder()</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>DevBootstrap(com.zatribune.spring.ecommerce.stock.db.repository.ProductRepository)</t>
   </si>
   <si>
     <t>Product(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>Product()</t>
@@ -2146,7 +2152,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2154,7 +2160,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -2162,7 +2168,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -2240,7 +2246,7 @@
         <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2328,7 +2334,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
@@ -2336,7 +2342,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>95</v>
@@ -2350,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -2361,7 +2367,7 @@
         <v>43</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -2372,7 +2378,7 @@
         <v>40</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -2383,7 +2389,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -2394,7 +2400,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -2405,7 +2411,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -2416,7 +2422,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -2427,7 +2433,7 @@
         <v>36</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -2438,7 +2444,7 @@
         <v>44</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -2449,7 +2455,7 @@
         <v>38</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -2457,10 +2463,10 @@
         <v>29</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -2468,10 +2474,10 @@
         <v>29</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2488,7 @@
         <v>47</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -2490,7 +2496,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>95</v>
@@ -2512,10 +2518,10 @@
         <v>48</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -2526,7 +2532,7 @@
         <v>51</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -2537,7 +2543,7 @@
         <v>52</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -2545,7 +2551,7 @@
         <v>50</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>80</v>

--- a/data/spring-kafka-microservices/ms-stock_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-stock_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="109">
   <si>
     <t>Class Name</t>
   </si>
@@ -57,51 +57,54 @@
     <t>void</t>
   </si>
   <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+  </si>
+  <si>
+    <t>getClass()</t>
+  </si>
+  <si>
+    <t>java.lang.Class</t>
+  </si>
+  <si>
+    <t>notifyAll()</t>
+  </si>
+  <si>
+    <t>hashCode()</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>wait()</t>
+  </si>
+  <si>
+    <t>StockApplicationTests()</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>notify()</t>
   </si>
   <si>
     <t>contextLoads()</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>toString()</t>
-  </si>
-  <si>
-    <t>java.lang.String</t>
-  </si>
-  <si>
     <t>wait(long)</t>
   </si>
   <si>
     <t>wait(long, int)</t>
   </si>
   <si>
-    <t>getClass()</t>
-  </si>
-  <si>
-    <t>java.lang.Class</t>
-  </si>
-  <si>
     <t>clone()</t>
   </si>
   <si>
     <t>java.lang.Object</t>
   </si>
   <si>
-    <t>notifyAll()</t>
-  </si>
-  <si>
-    <t>hashCode()</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>wait()</t>
-  </si>
-  <si>
     <t>com.zatribune.spring.ecommerce.stock.db.entities.Product$ProductBuilder</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
     <t>com.zatribune.spring.ecommerce.stock.db.entities.Product</t>
   </si>
   <si>
+    <t>Product$ProductBuilder()</t>
+  </si>
+  <si>
     <t>availableItems(int)</t>
   </si>
   <si>
@@ -132,18 +138,27 @@
     <t>run(java.lang.String[])</t>
   </si>
   <si>
+    <t>DevBootstrap(com.zatribune.spring.ecommerce.stock.db.repository.ProductRepository)</t>
+  </si>
+  <si>
     <t>setName(java.lang.String)</t>
   </si>
   <si>
     <t>getAvailableItems()</t>
   </si>
   <si>
+    <t>Product(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
     <t>setReservedItems(int)</t>
   </si>
   <si>
     <t>getReservedItems()</t>
   </si>
   <si>
+    <t>Product()</t>
+  </si>
+  <si>
     <t>getId()</t>
   </si>
   <si>
@@ -168,9 +183,15 @@
     <t>onEvent(domain.Order)</t>
   </si>
   <si>
+    <t>OrderListener(com.zatribune.spring.ecommerce.stock.service.OrderService)</t>
+  </si>
+  <si>
     <t>com.zatribune.spring.ecommerce.stock.StockApplication</t>
   </si>
   <si>
+    <t>StockApplication()</t>
+  </si>
+  <si>
     <t>main(java.lang.String[])</t>
   </si>
   <si>
@@ -183,6 +204,9 @@
     <t>confirm(domain.Order)</t>
   </si>
   <si>
+    <t>OrderServiceImpl(com.zatribune.spring.ecommerce.stock.db.repository.ProductRepository, org.springframework.kafka.core.KafkaTemplate)</t>
+  </si>
+  <si>
     <t>com.zatribune.spring.ecommerce.stock.service.OrderService</t>
   </si>
   <si>
@@ -204,21 +228,21 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>availableItems</t>
   </si>
   <si>
     <t>reservedItems</t>
   </si>
   <si>
-    <t>availableItems</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
@@ -231,18 +255,18 @@
     <t>orderService</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>SOURCE</t>
   </si>
   <si>
     <t>domain.OrderSource</t>
   </si>
   <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -315,43 +339,16 @@
     <t>38</t>
   </si>
   <si>
-    <t>StockApplicationTests()</t>
-  </si>
-  <si>
-    <t>Product$ProductBuilder()</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>DevBootstrap(com.zatribune.spring.ecommerce.stock.db.repository.ProductRepository)</t>
-  </si>
-  <si>
-    <t>Product(java.lang.Long, java.lang.String, int, int)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Product()</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>OrderListener(com.zatribune.spring.ecommerce.stock.service.OrderService)</t>
-  </si>
-  <si>
-    <t>StockApplication()</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>OrderServiceImpl(com.zatribune.spring.ecommerce.stock.db.repository.ProductRepository, org.springframework.kafka.core.KafkaTemplate)</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -455,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -463,13 +460,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -477,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
@@ -519,13 +516,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -533,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -550,7 +547,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>10</v>
@@ -567,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -575,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
@@ -586,63 +583,63 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>28</v>
@@ -651,60 +648,60 @@
         <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>10</v>
@@ -712,49 +709,49 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>32</v>
@@ -763,113 +760,113 @@
         <v>6</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
@@ -880,80 +877,80 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
@@ -964,41 +961,41 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>10</v>
@@ -1006,52 +1003,52 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -1062,66 +1059,66 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
@@ -1132,10 +1129,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>6</v>
@@ -1146,41 +1143,41 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
         <v>10</v>
@@ -1188,52 +1185,52 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
@@ -1244,108 +1241,108 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -1356,38 +1353,38 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
@@ -1398,41 +1395,41 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
         <v>10</v>
@@ -1440,10 +1437,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>6</v>
@@ -1454,55 +1451,55 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s" s="0">
         <v>10</v>
@@ -1510,97 +1507,97 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
         <v>10</v>
@@ -1608,10 +1605,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
@@ -1622,24 +1619,24 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
@@ -1650,125 +1647,125 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s" s="0">
         <v>10</v>
@@ -1776,24 +1773,24 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>6</v>
@@ -1804,24 +1801,24 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
@@ -1832,41 +1829,41 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s" s="0">
         <v>10</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s" s="0">
         <v>11</v>
@@ -1883,15 +1880,15 @@
         <v>6</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>6</v>
@@ -1902,80 +1899,80 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>6</v>
@@ -1986,24 +1983,24 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>6</v>
@@ -2014,10 +2011,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
@@ -2028,41 +2025,41 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s" s="0">
         <v>10</v>
@@ -2070,24 +2067,24 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
@@ -2098,16 +2095,128 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D122" t="s" s="0">
-        <v>21</v>
+      <c r="D130" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
@@ -2136,71 +2245,71 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2319,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2224,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
@@ -2232,351 +2341,263 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2594,13 +2615,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -2624,237 +2645,237 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>61</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>61</v>
-      </c>
       <c r="D15" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2872,359 +2893,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>32</v>
-      </c>
       <c r="E6" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="D8" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3242,19 +3263,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3272,19 +3293,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3302,19 +3323,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3332,19 +3353,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3362,19 +3383,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-stock_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-stock_structure.xlsx
@@ -228,19 +228,22 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>availableItems</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>reservedItems</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>availableItems</t>
-  </si>
-  <si>
-    <t>reservedItems</t>
+    <t>repository</t>
   </si>
   <si>
     <t>log</t>
@@ -249,22 +252,19 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>repository</t>
-  </si>
-  <si>
     <t>orderService</t>
   </si>
   <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>domain.OrderSource</t>
+  </si>
+  <si>
     <t>template</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>domain.OrderSource</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -2665,7 +2665,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -2679,7 +2679,7 @@
         <v>69</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -2693,7 +2693,7 @@
         <v>69</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -2707,7 +2707,7 @@
         <v>69</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -2721,7 +2721,7 @@
         <v>69</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -2729,13 +2729,13 @@
         <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -2743,7 +2743,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>69</v>
@@ -2757,13 +2757,13 @@
         <v>30</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -2771,7 +2771,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>69</v>
@@ -2785,13 +2785,13 @@
         <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -2799,13 +2799,13 @@
         <v>51</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -2827,7 +2827,7 @@
         <v>57</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>69</v>
@@ -2841,13 +2841,13 @@
         <v>57</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -2855,13 +2855,13 @@
         <v>57</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -2869,13 +2869,13 @@
         <v>57</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-stock_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-stock_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="110">
   <si>
     <t>Class Name</t>
   </si>
@@ -228,30 +228,30 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>reservedItems</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>availableItems</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>reservedItems</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>log</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>repository</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>orderService</t>
   </si>
   <si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>28</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>12</t>
@@ -2261,7 +2264,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -2269,7 +2272,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -2277,7 +2280,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -2285,7 +2288,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -2293,7 +2296,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -2301,7 +2304,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2399,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -2410,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -2421,7 +2424,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -2432,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -2443,7 +2446,7 @@
         <v>48</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -2454,7 +2457,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
@@ -2465,7 +2468,7 @@
         <v>47</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -2476,7 +2479,7 @@
         <v>40</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -2487,7 +2490,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -2498,7 +2501,7 @@
         <v>50</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -2509,7 +2512,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -2520,7 +2523,7 @@
         <v>49</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -2531,7 +2534,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
@@ -2542,7 +2545,7 @@
         <v>52</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -2553,7 +2556,7 @@
         <v>56</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -2564,7 +2567,7 @@
         <v>58</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -2575,7 +2578,7 @@
         <v>59</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -2679,7 +2682,7 @@
         <v>69</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -2707,7 +2710,7 @@
         <v>69</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -2721,7 +2724,7 @@
         <v>69</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -2729,13 +2732,13 @@
         <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -2743,7 +2746,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>69</v>
@@ -2763,7 +2766,7 @@
         <v>69</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -2771,13 +2774,13 @@
         <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -2785,13 +2788,13 @@
         <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2799,13 +2802,13 @@
         <v>51</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -2827,13 +2830,13 @@
         <v>57</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -2841,13 +2844,13 @@
         <v>57</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -2855,13 +2858,13 @@
         <v>57</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
@@ -2869,13 +2872,13 @@
         <v>57</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
